--- a/impdata/Data/ApplicationData_v03.xlsx
+++ b/impdata/Data/ApplicationData_v03.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\01_Data\02_Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A3DF96-0ACF-4952-BCF0-D4DD033AFBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD0D0E-1214-4A6A-A877-4EDF751884EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2175" windowWidth="21600" windowHeight="12765" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="26400" windowHeight="12030" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Dictionary" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$E$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$E$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">User!$A$1:$R$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="925">
   <si>
     <t>J.Zuegg</t>
   </si>
@@ -2014,30 +2014,12 @@
     <t>Extreme Drug-Resistant strain</t>
   </si>
   <si>
-    <t>Media_Use</t>
-  </si>
-  <si>
-    <t>Freezing</t>
-  </si>
-  <si>
-    <t>Media used for Freezing</t>
-  </si>
-  <si>
-    <t>GlycerolStock</t>
-  </si>
-  <si>
-    <t>Media used for GlycerolStock</t>
-  </si>
-  <si>
     <t>Inhouse</t>
   </si>
   <si>
     <t>Inhouse used growth media</t>
   </si>
   <si>
-    <t>Recommended</t>
-  </si>
-  <si>
     <t>Recommanded growth media</t>
   </si>
   <si>
@@ -2795,6 +2777,45 @@
   </si>
   <si>
     <t>dict_order</t>
+  </si>
+  <si>
+    <t>Culture_Type</t>
+  </si>
+  <si>
+    <t>Growth Broth</t>
+  </si>
+  <si>
+    <t>Growth Media</t>
+  </si>
+  <si>
+    <t>Growth Agar</t>
+  </si>
+  <si>
+    <t>Freezing Media</t>
+  </si>
+  <si>
+    <t>Glycerol Stock</t>
+  </si>
+  <si>
+    <t>Media for freezing samples</t>
+  </si>
+  <si>
+    <t>Media for glycerol stock</t>
+  </si>
+  <si>
+    <t>Broth media for subculture</t>
+  </si>
+  <si>
+    <t>Agar for innoculation</t>
+  </si>
+  <si>
+    <t>Broth media for growth assay</t>
+  </si>
+  <si>
+    <t>Culture_Source</t>
+  </si>
+  <si>
+    <t>Recommanded</t>
   </si>
 </sst>
 </file>
@@ -3275,7 +3296,7 @@
         <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>239</v>
@@ -3311,24 +3332,24 @@
         <v>536</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>242</v>
@@ -3348,7 +3369,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="P2" s="6">
         <f>COUNTIF($A$2:$A$125,A2)</f>
@@ -3377,7 +3398,7 @@
         <v>534</v>
       </c>
       <c r="E3" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F3" t="s">
         <v>241</v>
@@ -3559,19 +3580,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C7" t="s">
         <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F7" t="s">
         <v>240</v>
@@ -3595,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
@@ -3624,7 +3645,7 @@
         <v>533</v>
       </c>
       <c r="E8" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="F8" t="s">
         <v>241</v>
@@ -3677,7 +3698,7 @@
         <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F9" t="s">
         <v>240</v>
@@ -4197,7 +4218,7 @@
         <v>288</v>
       </c>
       <c r="E20" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F20" t="s">
         <v>241</v>
@@ -4297,7 +4318,7 @@
         <v>290</v>
       </c>
       <c r="E22" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F22" t="s">
         <v>241</v>
@@ -4397,7 +4418,7 @@
         <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F24" t="s">
         <v>241</v>
@@ -4450,7 +4471,7 @@
         <v>339</v>
       </c>
       <c r="E25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F25" t="s">
         <v>241</v>
@@ -5208,7 +5229,7 @@
         <v>341</v>
       </c>
       <c r="E41" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F41" t="s">
         <v>241</v>
@@ -5261,7 +5282,7 @@
         <v>244</v>
       </c>
       <c r="E42" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F42" t="s">
         <v>241</v>
@@ -5314,7 +5335,7 @@
         <v>330</v>
       </c>
       <c r="E43" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F43" t="s">
         <v>241</v>
@@ -5931,7 +5952,7 @@
         <v>315</v>
       </c>
       <c r="E56" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F56" t="s">
         <v>242</v>
@@ -6031,7 +6052,7 @@
         <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F58" t="s">
         <v>241</v>
@@ -6225,7 +6246,7 @@
         <v>332</v>
       </c>
       <c r="E62" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F62" t="s">
         <v>241</v>
@@ -6278,7 +6299,7 @@
         <v>284</v>
       </c>
       <c r="E63" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F63" t="s">
         <v>241</v>
@@ -6331,7 +6352,7 @@
         <v>338</v>
       </c>
       <c r="E64" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F64" t="s">
         <v>241</v>
@@ -6578,7 +6599,7 @@
         <v>94</v>
       </c>
       <c r="E69" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F69" t="s">
         <v>241</v>
@@ -6913,7 +6934,7 @@
         <v>334</v>
       </c>
       <c r="E76" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F76" t="s">
         <v>241</v>
@@ -6954,19 +6975,19 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B77" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C77" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D77" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E77" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F77" t="s">
         <v>240</v>
@@ -7016,7 +7037,7 @@
         <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F78" t="s">
         <v>241</v>
@@ -7633,7 +7654,7 @@
         <v>343</v>
       </c>
       <c r="E91" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F91" t="s">
         <v>240</v>
@@ -7733,7 +7754,7 @@
         <v>279</v>
       </c>
       <c r="E93" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F93" t="s">
         <v>241</v>
@@ -7974,7 +7995,7 @@
         <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F98" t="s">
         <v>240</v>
@@ -8074,7 +8095,7 @@
         <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F100" t="s">
         <v>240</v>
@@ -8124,7 +8145,7 @@
         <v>169</v>
       </c>
       <c r="E101" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F101" t="s">
         <v>241</v>
@@ -8271,7 +8292,7 @@
         <v>91</v>
       </c>
       <c r="E104" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F104" t="s">
         <v>241</v>
@@ -8371,7 +8392,7 @@
         <v>327</v>
       </c>
       <c r="E106" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F106" t="s">
         <v>241</v>
@@ -8518,7 +8539,7 @@
         <v>286</v>
       </c>
       <c r="E109" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F109" t="s">
         <v>241</v>
@@ -8806,7 +8827,7 @@
         <v>336</v>
       </c>
       <c r="E115" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F115" t="s">
         <v>241</v>
@@ -8859,7 +8880,7 @@
         <v>110</v>
       </c>
       <c r="E116" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F116" t="s">
         <v>241</v>
@@ -8912,7 +8933,7 @@
         <v>383</v>
       </c>
       <c r="E117" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F117" t="s">
         <v>241</v>
@@ -8965,7 +8986,7 @@
         <v>389</v>
       </c>
       <c r="E118" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F118" t="s">
         <v>241</v>
@@ -9018,7 +9039,7 @@
         <v>397</v>
       </c>
       <c r="E119" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F119" t="s">
         <v>241</v>
@@ -9071,7 +9092,7 @@
         <v>401</v>
       </c>
       <c r="E120" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F120" t="s">
         <v>241</v>
@@ -9124,7 +9145,7 @@
         <v>407</v>
       </c>
       <c r="E121" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F121" t="s">
         <v>241</v>
@@ -9177,7 +9198,7 @@
         <v>413</v>
       </c>
       <c r="E122" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F122" t="s">
         <v>241</v>
@@ -9230,7 +9251,7 @@
         <v>417</v>
       </c>
       <c r="E123" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F123" t="s">
         <v>241</v>
@@ -9283,7 +9304,7 @@
         <v>427</v>
       </c>
       <c r="E124" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F124" t="s">
         <v>241</v>
@@ -9336,7 +9357,7 @@
         <v>430</v>
       </c>
       <c r="E125" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F125" t="s">
         <v>242</v>
@@ -9387,11 +9408,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9405,19 +9426,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9431,7 +9452,7 @@
         <v>539</v>
       </c>
       <c r="E2" s="6">
-        <f>COUNTIF($B$2:$B$506,B2)</f>
+        <f>COUNTIF($B$2:$B$509,B2)</f>
         <v>1</v>
       </c>
     </row>
@@ -9446,7 +9467,7 @@
         <v>541</v>
       </c>
       <c r="E3" s="6">
-        <f>COUNTIF($B$2:$B$506,B3)</f>
+        <f>COUNTIF($B$2:$B$509,B3)</f>
         <v>1</v>
       </c>
     </row>
@@ -9461,7 +9482,7 @@
         <v>543</v>
       </c>
       <c r="E4" s="6">
-        <f>COUNTIF($B$2:$B$506,B4)</f>
+        <f>COUNTIF($B$2:$B$509,B4)</f>
         <v>1</v>
       </c>
     </row>
@@ -9476,7 +9497,7 @@
         <v>545</v>
       </c>
       <c r="E5" s="6">
-        <f>COUNTIF($B$2:$B$506,B5)</f>
+        <f>COUNTIF($B$2:$B$509,B5)</f>
         <v>1</v>
       </c>
     </row>
@@ -9491,7 +9512,7 @@
         <v>547</v>
       </c>
       <c r="E6" s="6">
-        <f>COUNTIF($B$2:$B$506,B6)</f>
+        <f>COUNTIF($B$2:$B$509,B6)</f>
         <v>1</v>
       </c>
     </row>
@@ -9506,7 +9527,7 @@
         <v>549</v>
       </c>
       <c r="E7" s="6">
-        <f>COUNTIF($B$2:$B$506,B7)</f>
+        <f>COUNTIF($B$2:$B$509,B7)</f>
         <v>1</v>
       </c>
     </row>
@@ -9521,7 +9542,7 @@
         <v>545</v>
       </c>
       <c r="E8" s="6">
-        <f>COUNTIF($B$2:$B$506,B8)</f>
+        <f>COUNTIF($B$2:$B$509,B8)</f>
         <v>1</v>
       </c>
     </row>
@@ -9536,7 +9557,7 @@
         <v>553</v>
       </c>
       <c r="E9" s="6">
-        <f>COUNTIF($B$2:$B$506,B9)</f>
+        <f>COUNTIF($B$2:$B$509,B9)</f>
         <v>1</v>
       </c>
     </row>
@@ -9551,7 +9572,7 @@
         <v>555</v>
       </c>
       <c r="E10" s="6">
-        <f>COUNTIF($B$2:$B$506,B10)</f>
+        <f>COUNTIF($B$2:$B$509,B10)</f>
         <v>1</v>
       </c>
     </row>
@@ -9566,7 +9587,7 @@
         <v>557</v>
       </c>
       <c r="E11" s="6">
-        <f>COUNTIF($B$2:$B$506,B11)</f>
+        <f>COUNTIF($B$2:$B$509,B11)</f>
         <v>1</v>
       </c>
     </row>
@@ -9581,7 +9602,7 @@
         <v>559</v>
       </c>
       <c r="E12" s="6">
-        <f>COUNTIF($B$2:$B$506,B12)</f>
+        <f>COUNTIF($B$2:$B$509,B12)</f>
         <v>1</v>
       </c>
     </row>
@@ -9596,7 +9617,7 @@
         <v>560</v>
       </c>
       <c r="E13" s="6">
-        <f>COUNTIF($B$2:$B$506,B13)</f>
+        <f>COUNTIF($B$2:$B$509,B13)</f>
         <v>1</v>
       </c>
     </row>
@@ -9611,7 +9632,7 @@
         <v>563</v>
       </c>
       <c r="E14" s="6">
-        <f>COUNTIF($B$2:$B$506,B14)</f>
+        <f>COUNTIF($B$2:$B$509,B14)</f>
         <v>1</v>
       </c>
     </row>
@@ -9626,7 +9647,7 @@
         <v>565</v>
       </c>
       <c r="E15" s="6">
-        <f>COUNTIF($B$2:$B$506,B15)</f>
+        <f>COUNTIF($B$2:$B$509,B15)</f>
         <v>1</v>
       </c>
     </row>
@@ -9641,7 +9662,7 @@
         <v>568</v>
       </c>
       <c r="E16" s="6">
-        <f>COUNTIF($B$2:$B$506,B16)</f>
+        <f>COUNTIF($B$2:$B$509,B16)</f>
         <v>1</v>
       </c>
     </row>
@@ -9656,7 +9677,7 @@
         <v>570</v>
       </c>
       <c r="E17" s="6">
-        <f>COUNTIF($B$2:$B$506,B17)</f>
+        <f>COUNTIF($B$2:$B$509,B17)</f>
         <v>1</v>
       </c>
     </row>
@@ -9671,7 +9692,7 @@
         <v>573</v>
       </c>
       <c r="E18" s="6">
-        <f>COUNTIF($B$2:$B$506,B18)</f>
+        <f>COUNTIF($B$2:$B$509,B18)</f>
         <v>1</v>
       </c>
     </row>
@@ -9686,7 +9707,7 @@
         <v>575</v>
       </c>
       <c r="E19" s="6">
-        <f>COUNTIF($B$2:$B$506,B19)</f>
+        <f>COUNTIF($B$2:$B$509,B19)</f>
         <v>1</v>
       </c>
     </row>
@@ -9695,7 +9716,7 @@
         <v>576</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -9704,7 +9725,7 @@
         <v>593</v>
       </c>
       <c r="E20" s="6">
-        <f>COUNTIF($B$2:$B$506,B20)</f>
+        <f>COUNTIF($B$2:$B$509,B20)</f>
         <v>1</v>
       </c>
     </row>
@@ -9722,7 +9743,7 @@
         <v>578</v>
       </c>
       <c r="E21" s="6">
-        <f>COUNTIF($B$2:$B$506,B21)</f>
+        <f>COUNTIF($B$2:$B$509,B21)</f>
         <v>1</v>
       </c>
     </row>
@@ -9740,7 +9761,7 @@
         <v>580</v>
       </c>
       <c r="E22" s="6">
-        <f>COUNTIF($B$2:$B$506,B22)</f>
+        <f>COUNTIF($B$2:$B$509,B22)</f>
         <v>1</v>
       </c>
     </row>
@@ -9758,7 +9779,7 @@
         <v>582</v>
       </c>
       <c r="E23" s="6">
-        <f>COUNTIF($B$2:$B$506,B23)</f>
+        <f>COUNTIF($B$2:$B$509,B23)</f>
         <v>1</v>
       </c>
     </row>
@@ -9767,16 +9788,16 @@
         <v>576</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C24" s="6">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E24" s="6">
-        <f>COUNTIF($B$2:$B$506,B24)</f>
+        <f>COUNTIF($B$2:$B$509,B24)</f>
         <v>1</v>
       </c>
     </row>
@@ -9794,7 +9815,7 @@
         <v>584</v>
       </c>
       <c r="E25" s="6">
-        <f>COUNTIF($B$2:$B$506,B25)</f>
+        <f>COUNTIF($B$2:$B$509,B25)</f>
         <v>1</v>
       </c>
     </row>
@@ -9803,16 +9824,16 @@
         <v>576</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C26" s="6">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E26" s="6">
-        <f>COUNTIF($B$2:$B$506,B26)</f>
+        <f>COUNTIF($B$2:$B$509,B26)</f>
         <v>1</v>
       </c>
     </row>
@@ -9821,16 +9842,16 @@
         <v>576</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C27" s="6">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E27" s="6">
-        <f>COUNTIF($B$2:$B$506,B27)</f>
+        <f>COUNTIF($B$2:$B$509,B27)</f>
         <v>1</v>
       </c>
     </row>
@@ -9848,7 +9869,7 @@
         <v>588</v>
       </c>
       <c r="E28" s="6">
-        <f>COUNTIF($B$2:$B$506,B28)</f>
+        <f>COUNTIF($B$2:$B$509,B28)</f>
         <v>1</v>
       </c>
     </row>
@@ -9866,7 +9887,7 @@
         <v>586</v>
       </c>
       <c r="E29" s="6">
-        <f>COUNTIF($B$2:$B$506,B29)</f>
+        <f>COUNTIF($B$2:$B$509,B29)</f>
         <v>1</v>
       </c>
     </row>
@@ -9875,16 +9896,16 @@
         <v>576</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C30" s="6">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E30" s="6">
-        <f>COUNTIF($B$2:$B$506,B30)</f>
+        <f>COUNTIF($B$2:$B$509,B30)</f>
         <v>1</v>
       </c>
     </row>
@@ -9899,7 +9920,7 @@
         <v>591</v>
       </c>
       <c r="E31" s="6">
-        <f>COUNTIF($B$2:$B$506,B31)</f>
+        <f>COUNTIF($B$2:$B$509,B31)</f>
         <v>1</v>
       </c>
     </row>
@@ -9914,7 +9935,7 @@
         <v>593</v>
       </c>
       <c r="E32" s="6">
-        <f>COUNTIF($B$2:$B$506,B32)</f>
+        <f>COUNTIF($B$2:$B$509,B32)</f>
         <v>1</v>
       </c>
     </row>
@@ -9929,7 +9950,7 @@
         <v>595</v>
       </c>
       <c r="E33" s="6">
-        <f>COUNTIF($B$2:$B$506,B33)</f>
+        <f>COUNTIF($B$2:$B$509,B33)</f>
         <v>1</v>
       </c>
     </row>
@@ -9944,7 +9965,7 @@
         <v>597</v>
       </c>
       <c r="E34" s="6">
-        <f>COUNTIF($B$2:$B$506,B34)</f>
+        <f>COUNTIF($B$2:$B$509,B34)</f>
         <v>1</v>
       </c>
     </row>
@@ -9959,7 +9980,7 @@
         <v>599</v>
       </c>
       <c r="E35" s="6">
-        <f>COUNTIF($B$2:$B$506,B35)</f>
+        <f>COUNTIF($B$2:$B$509,B35)</f>
         <v>1</v>
       </c>
     </row>
@@ -9974,7 +9995,7 @@
         <v>602</v>
       </c>
       <c r="E36" s="6">
-        <f>COUNTIF($B$2:$B$506,B36)</f>
+        <f>COUNTIF($B$2:$B$509,B36)</f>
         <v>1</v>
       </c>
     </row>
@@ -9989,7 +10010,7 @@
         <v>604</v>
       </c>
       <c r="E37" s="6">
-        <f>COUNTIF($B$2:$B$506,B37)</f>
+        <f>COUNTIF($B$2:$B$509,B37)</f>
         <v>1</v>
       </c>
     </row>
@@ -10004,7 +10025,7 @@
         <v>606</v>
       </c>
       <c r="E38" s="6">
-        <f>COUNTIF($B$2:$B$506,B38)</f>
+        <f>COUNTIF($B$2:$B$509,B38)</f>
         <v>1</v>
       </c>
     </row>
@@ -10019,7 +10040,7 @@
         <v>608</v>
       </c>
       <c r="E39" s="6">
-        <f>COUNTIF($B$2:$B$506,B39)</f>
+        <f>COUNTIF($B$2:$B$509,B39)</f>
         <v>1</v>
       </c>
     </row>
@@ -10034,7 +10055,7 @@
         <v>610</v>
       </c>
       <c r="E40" s="6">
-        <f>COUNTIF($B$2:$B$506,B40)</f>
+        <f>COUNTIF($B$2:$B$509,B40)</f>
         <v>1</v>
       </c>
     </row>
@@ -10049,7 +10070,7 @@
         <v>612</v>
       </c>
       <c r="E41" s="6">
-        <f>COUNTIF($B$2:$B$506,B41)</f>
+        <f>COUNTIF($B$2:$B$509,B41)</f>
         <v>1</v>
       </c>
     </row>
@@ -10064,7 +10085,7 @@
         <v>615</v>
       </c>
       <c r="E42" s="6">
-        <f>COUNTIF($B$2:$B$506,B42)</f>
+        <f>COUNTIF($B$2:$B$509,B42)</f>
         <v>1</v>
       </c>
     </row>
@@ -10079,7 +10100,7 @@
         <v>617</v>
       </c>
       <c r="E43" s="6">
-        <f>COUNTIF($B$2:$B$506,B43)</f>
+        <f>COUNTIF($B$2:$B$509,B43)</f>
         <v>1</v>
       </c>
     </row>
@@ -10094,7 +10115,7 @@
         <v>619</v>
       </c>
       <c r="E44" s="6">
-        <f>COUNTIF($B$2:$B$506,B44)</f>
+        <f>COUNTIF($B$2:$B$509,B44)</f>
         <v>1</v>
       </c>
     </row>
@@ -10109,7 +10130,7 @@
         <v>621</v>
       </c>
       <c r="E45" s="6">
-        <f>COUNTIF($B$2:$B$506,B45)</f>
+        <f>COUNTIF($B$2:$B$509,B45)</f>
         <v>1</v>
       </c>
     </row>
@@ -10124,7 +10145,7 @@
         <v>623</v>
       </c>
       <c r="E46" s="6">
-        <f>COUNTIF($B$2:$B$506,B46)</f>
+        <f>COUNTIF($B$2:$B$509,B46)</f>
         <v>1</v>
       </c>
     </row>
@@ -10133,13 +10154,13 @@
         <v>613</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D47" t="s">
         <v>624</v>
       </c>
       <c r="E47" s="6">
-        <f>COUNTIF($B$2:$B$506,B47)</f>
+        <f>COUNTIF($B$2:$B$509,B47)</f>
         <v>1</v>
       </c>
     </row>
@@ -10154,7 +10175,7 @@
         <v>627</v>
       </c>
       <c r="E48" s="6">
-        <f>COUNTIF($B$2:$B$506,B48)</f>
+        <f>COUNTIF($B$2:$B$509,B48)</f>
         <v>1</v>
       </c>
     </row>
@@ -10169,7 +10190,7 @@
         <v>629</v>
       </c>
       <c r="E49" s="6">
-        <f>COUNTIF($B$2:$B$506,B49)</f>
+        <f>COUNTIF($B$2:$B$509,B49)</f>
         <v>1</v>
       </c>
     </row>
@@ -10184,7 +10205,7 @@
         <v>630</v>
       </c>
       <c r="E50" s="6">
-        <f>COUNTIF($B$2:$B$506,B50)</f>
+        <f>COUNTIF($B$2:$B$509,B50)</f>
         <v>1</v>
       </c>
     </row>
@@ -10199,7 +10220,7 @@
         <v>632</v>
       </c>
       <c r="E51" s="6">
-        <f>COUNTIF($B$2:$B$506,B51)</f>
+        <f>COUNTIF($B$2:$B$509,B51)</f>
         <v>1</v>
       </c>
     </row>
@@ -10214,7 +10235,7 @@
         <v>634</v>
       </c>
       <c r="E52" s="6">
-        <f>COUNTIF($B$2:$B$506,B52)</f>
+        <f>COUNTIF($B$2:$B$509,B52)</f>
         <v>1</v>
       </c>
     </row>
@@ -10229,7 +10250,7 @@
         <v>637</v>
       </c>
       <c r="E53" s="6">
-        <f>COUNTIF($B$2:$B$506,B53)</f>
+        <f>COUNTIF($B$2:$B$509,B53)</f>
         <v>1</v>
       </c>
     </row>
@@ -10244,7 +10265,7 @@
         <v>639</v>
       </c>
       <c r="E54" s="6">
-        <f>COUNTIF($B$2:$B$506,B54)</f>
+        <f>COUNTIF($B$2:$B$509,B54)</f>
         <v>1</v>
       </c>
     </row>
@@ -10259,7 +10280,7 @@
         <v>641</v>
       </c>
       <c r="E55" s="6">
-        <f>COUNTIF($B$2:$B$506,B55)</f>
+        <f>COUNTIF($B$2:$B$509,B55)</f>
         <v>1</v>
       </c>
     </row>
@@ -10274,7 +10295,7 @@
         <v>643</v>
       </c>
       <c r="E56" s="6">
-        <f>COUNTIF($B$2:$B$506,B56)</f>
+        <f>COUNTIF($B$2:$B$509,B56)</f>
         <v>1</v>
       </c>
     </row>
@@ -10283,13 +10304,13 @@
         <v>635</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D57" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E57" s="6">
-        <f>COUNTIF($B$2:$B$506,B57)</f>
+        <f>COUNTIF($B$2:$B$509,B57)</f>
         <v>1</v>
       </c>
     </row>
@@ -10304,7 +10325,7 @@
         <v>645</v>
       </c>
       <c r="E58" s="6">
-        <f>COUNTIF($B$2:$B$506,B58)</f>
+        <f>COUNTIF($B$2:$B$509,B58)</f>
         <v>1</v>
       </c>
     </row>
@@ -10316,10 +10337,10 @@
         <v>646</v>
       </c>
       <c r="D59" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E59" s="6">
-        <f>COUNTIF($B$2:$B$506,B59)</f>
+        <f>COUNTIF($B$2:$B$509,B59)</f>
         <v>1</v>
       </c>
     </row>
@@ -10328,13 +10349,13 @@
         <v>635</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D60" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E60" s="6">
-        <f>COUNTIF($B$2:$B$506,B60)</f>
+        <f>COUNTIF($B$2:$B$509,B60)</f>
         <v>1</v>
       </c>
     </row>
@@ -10349,7 +10370,7 @@
         <v>648</v>
       </c>
       <c r="E61" s="6">
-        <f>COUNTIF($B$2:$B$506,B61)</f>
+        <f>COUNTIF($B$2:$B$509,B61)</f>
         <v>1</v>
       </c>
     </row>
@@ -10364,7 +10385,7 @@
         <v>650</v>
       </c>
       <c r="E62" s="6">
-        <f>COUNTIF($B$2:$B$506,B62)</f>
+        <f>COUNTIF($B$2:$B$509,B62)</f>
         <v>1</v>
       </c>
     </row>
@@ -10379,7 +10400,7 @@
         <v>652</v>
       </c>
       <c r="E63" s="6">
-        <f>COUNTIF($B$2:$B$506,B63)</f>
+        <f>COUNTIF($B$2:$B$509,B63)</f>
         <v>1</v>
       </c>
     </row>
@@ -10394,7 +10415,7 @@
         <v>654</v>
       </c>
       <c r="E64" s="6">
-        <f>COUNTIF($B$2:$B$506,B64)</f>
+        <f>COUNTIF($B$2:$B$509,B64)</f>
         <v>1</v>
       </c>
     </row>
@@ -10409,7 +10430,7 @@
         <v>656</v>
       </c>
       <c r="E65" s="6">
-        <f>COUNTIF($B$2:$B$506,B65)</f>
+        <f>COUNTIF($B$2:$B$509,B65)</f>
         <v>1</v>
       </c>
     </row>
@@ -10418,13 +10439,13 @@
         <v>635</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D66" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E66" s="6">
-        <f>COUNTIF($B$2:$B$506,B66)</f>
+        <f>COUNTIF($B$2:$B$509,B66)</f>
         <v>1</v>
       </c>
     </row>
@@ -10433,1516 +10454,1561 @@
         <v>635</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D67" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E67" s="6">
-        <f>COUNTIF($B$2:$B$506,B67)</f>
+        <f>COUNTIF($B$2:$B$509,B67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D68" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E68" s="6">
-        <f>COUNTIF($B$2:$B$506,B68)</f>
+        <f>COUNTIF($B$2:$B$509,B68)</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D69" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E69" s="6">
-        <f>COUNTIF($B$2:$B$506,B69)</f>
+        <f>COUNTIF($B$2:$B$509,B69)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="D70" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E70" s="6">
-        <f>COUNTIF($B$2:$B$506,B70)</f>
+        <f>COUNTIF($B$2:$B$509,B70)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D71" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E71" s="6">
-        <f>COUNTIF($B$2:$B$506,B71)</f>
+        <f>COUNTIF($B$2:$B$509,B71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D72" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E72" s="6">
-        <f>COUNTIF($B$2:$B$506,B72)</f>
+        <f>COUNTIF($B$2:$B$509,B72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D73" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E73" s="6">
-        <f>COUNTIF($B$2:$B$506,B73)</f>
+        <f>COUNTIF($B$2:$B$509,B73)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D74" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E74" s="6">
-        <f>COUNTIF($B$2:$B$506,B74)</f>
+        <f>COUNTIF($B$2:$B$509,B74)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D75" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E75" s="6">
-        <f>COUNTIF($B$2:$B$506,B75)</f>
+        <f>COUNTIF($B$2:$B$509,B75)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D76" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E76" s="6">
-        <f>COUNTIF($B$2:$B$506,B76)</f>
+        <f>COUNTIF($B$2:$B$509,B76)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>677</v>
+        <v>912</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>678</v>
+        <v>913</v>
       </c>
       <c r="D77" t="s">
-        <v>679</v>
+        <v>920</v>
       </c>
       <c r="E77" s="6">
-        <f>COUNTIF($B$2:$B$506,B77)</f>
+        <f>COUNTIF($B$2:$B$509,B77)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>677</v>
+        <v>912</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>680</v>
+        <v>914</v>
       </c>
       <c r="D78" t="s">
-        <v>681</v>
+        <v>922</v>
       </c>
       <c r="E78" s="6">
-        <f>COUNTIF($B$2:$B$506,B78)</f>
+        <f>COUNTIF($B$2:$B$509,B78)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>677</v>
+        <v>912</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>682</v>
+        <v>915</v>
       </c>
       <c r="D79" t="s">
-        <v>683</v>
+        <v>921</v>
       </c>
       <c r="E79" s="6">
-        <f>COUNTIF($B$2:$B$506,B79)</f>
+        <f>COUNTIF($B$2:$B$509,B79)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>677</v>
+        <v>912</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>684</v>
+        <v>916</v>
       </c>
       <c r="D80" t="s">
-        <v>685</v>
+        <v>918</v>
       </c>
       <c r="E80" s="6">
-        <f>COUNTIF($B$2:$B$506,B80)</f>
+        <f>COUNTIF($B$2:$B$509,B80)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>686</v>
+        <v>912</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>687</v>
+        <v>917</v>
       </c>
       <c r="D81" t="s">
-        <v>688</v>
+        <v>919</v>
       </c>
       <c r="E81" s="6">
-        <f>COUNTIF($B$2:$B$506,B81)</f>
+        <f>COUNTIF($B$2:$B$509,B81)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>686</v>
+        <v>923</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="D82" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="E82" s="6">
-        <f>COUNTIF($B$2:$B$506,B82)</f>
+        <f>COUNTIF($B$2:$B$509,B82)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>686</v>
+        <v>923</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>691</v>
+        <v>924</v>
       </c>
       <c r="D83" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="E83" s="6">
-        <f>COUNTIF($B$2:$B$506,B83)</f>
+        <f>COUNTIF($B$2:$B$509,B83)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D84" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E84" s="6">
-        <f>COUNTIF($B$2:$B$506,B84)</f>
+        <f>COUNTIF($B$2:$B$509,B84)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D85" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="E85" s="6">
-        <f>COUNTIF($B$2:$B$506,B85)</f>
+        <f>COUNTIF($B$2:$B$509,B85)</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>697</v>
-      </c>
-      <c r="B86" s="9">
-        <v>24</v>
+        <v>680</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>685</v>
       </c>
       <c r="D86" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E86" s="6">
-        <f>COUNTIF($B$2:$B$506,B86)</f>
+        <f>COUNTIF($B$2:$B$509,B86)</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>697</v>
-      </c>
-      <c r="B87" s="9">
-        <v>48</v>
+        <v>680</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>687</v>
       </c>
       <c r="D87" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="E87" s="6">
-        <f>COUNTIF($B$2:$B$506,B87)</f>
+        <f>COUNTIF($B$2:$B$509,B87)</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>697</v>
-      </c>
-      <c r="B88" s="9">
-        <v>96</v>
+        <v>680</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>689</v>
       </c>
       <c r="D88" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E88" s="6">
-        <f>COUNTIF($B$2:$B$506,B88)</f>
+        <f>COUNTIF($B$2:$B$509,B88)</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B89" s="9">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E89" s="6">
-        <f>COUNTIF($B$2:$B$506,B89)</f>
+        <f>COUNTIF($B$2:$B$509,B89)</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B90" s="9">
-        <v>1536</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E90" s="6">
-        <f>COUNTIF($B$2:$B$506,B90)</f>
+        <f>COUNTIF($B$2:$B$509,B90)</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B91" s="9">
-        <v>3456</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E91" s="6">
-        <f>COUNTIF($B$2:$B$506,B91)</f>
+        <f>COUNTIF($B$2:$B$509,B91)</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>704</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>705</v>
+        <v>691</v>
+      </c>
+      <c r="B92" s="9">
+        <v>384</v>
       </c>
       <c r="D92" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E92" s="6">
-        <f>COUNTIF($B$2:$B$506,B92)</f>
+        <f>COUNTIF($B$2:$B$509,B92)</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>704</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>707</v>
+        <v>691</v>
+      </c>
+      <c r="B93" s="9">
+        <v>1536</v>
       </c>
       <c r="D93" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="E93" s="6">
-        <f>COUNTIF($B$2:$B$506,B93)</f>
+        <f>COUNTIF($B$2:$B$509,B93)</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>704</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>709</v>
+        <v>691</v>
+      </c>
+      <c r="B94" s="9">
+        <v>3456</v>
       </c>
       <c r="D94" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="E94" s="6">
-        <f>COUNTIF($B$2:$B$506,B94)</f>
+        <f>COUNTIF($B$2:$B$509,B94)</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="D95" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="E95" s="6">
-        <f>COUNTIF($B$2:$B$506,B95)</f>
+        <f>COUNTIF($B$2:$B$509,B95)</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D96" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E96" s="6">
-        <f>COUNTIF($B$2:$B$506,B96)</f>
+        <f>COUNTIF($B$2:$B$509,B96)</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="D97" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="E97" s="6">
-        <f>COUNTIF($B$2:$B$506,B97)</f>
+        <f>COUNTIF($B$2:$B$509,B97)</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="D98" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="E98" s="6">
-        <f>COUNTIF($B$2:$B$506,B98)</f>
+        <f>COUNTIF($B$2:$B$509,B98)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="D99" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="E99" s="6">
-        <f>COUNTIF($B$2:$B$506,B99)</f>
+        <f>COUNTIF($B$2:$B$509,B99)</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D100" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="E100" s="6">
-        <f>COUNTIF($B$2:$B$506,B100)</f>
+        <f>COUNTIF($B$2:$B$509,B100)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="D101" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E101" s="6">
-        <f>COUNTIF($B$2:$B$506,B101)</f>
+        <f>COUNTIF($B$2:$B$509,B101)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D102" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="E102" s="6">
-        <f>COUNTIF($B$2:$B$506,B102)</f>
+        <f>COUNTIF($B$2:$B$509,B102)</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D103" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="E103" s="6">
-        <f>COUNTIF($B$2:$B$506,B103)</f>
+        <f>COUNTIF($B$2:$B$509,B103)</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="D104" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="E104" s="6">
-        <f>COUNTIF($B$2:$B$506,B104)</f>
+        <f>COUNTIF($B$2:$B$509,B104)</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D105" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E105" s="6">
-        <f>COUNTIF($B$2:$B$506,B105)</f>
+        <f>COUNTIF($B$2:$B$509,B105)</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="D106" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="E106" s="6">
-        <f>COUNTIF($B$2:$B$506,B106)</f>
+        <f>COUNTIF($B$2:$B$509,B106)</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D107" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="E107" s="6">
-        <f>COUNTIF($B$2:$B$506,B107)</f>
+        <f>COUNTIF($B$2:$B$509,B107)</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="C108" s="6">
-        <v>4</v>
+        <v>725</v>
       </c>
       <c r="D108" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E108" s="6">
-        <f>COUNTIF($B$2:$B$506,B108)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$509,B108)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="C109" s="6">
-        <v>3</v>
+        <v>727</v>
       </c>
       <c r="D109" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="E109" s="6">
-        <f>COUNTIF($B$2:$B$506,B109)</f>
+        <f>COUNTIF($B$2:$B$509,B109)</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="C110" s="6">
-        <v>1</v>
+        <v>729</v>
       </c>
       <c r="D110" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="E110" s="6">
-        <f>COUNTIF($B$2:$B$506,B110)</f>
+        <f>COUNTIF($B$2:$B$509,B110)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C111" s="6">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>733</v>
+      </c>
+      <c r="E111" s="6">
+        <f>COUNTIF($B$2:$B$509,B111)</f>
         <v>2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>745</v>
-      </c>
-      <c r="E111" s="6">
-        <f>COUNTIF($B$2:$B$506,B111)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C112" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="E112" s="6">
-        <f>COUNTIF($B$2:$B$506,B112)</f>
+        <f>COUNTIF($B$2:$B$509,B112)</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C113" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="E113" s="6">
-        <f>COUNTIF($B$2:$B$506,B113)</f>
+        <f>COUNTIF($B$2:$B$509,B113)</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C114" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="E114" s="6">
-        <f>COUNTIF($B$2:$B$506,B114)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$509,B114)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C115" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="E115" s="6">
-        <f>COUNTIF($B$2:$B$506,B115)</f>
+        <f>COUNTIF($B$2:$B$509,B115)</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C116" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="E116" s="6">
-        <f>COUNTIF($B$2:$B$506,B116)</f>
+        <f>COUNTIF($B$2:$B$509,B116)</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>740</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C117" s="6">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
         <v>746</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="C117" s="6">
-        <v>6</v>
-      </c>
-      <c r="D117" t="s">
-        <v>758</v>
-      </c>
       <c r="E117" s="6">
-        <f>COUNTIF($B$2:$B$506,B117)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$509,B117)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>826</v>
+        <v>747</v>
       </c>
       <c r="C118" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="E118" s="6">
-        <f>COUNTIF($B$2:$B$506,B118)</f>
+        <f>COUNTIF($B$2:$B$509,B118)</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="C119" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="E119" s="6">
-        <f>COUNTIF($B$2:$B$506,B119)</f>
+        <f>COUNTIF($B$2:$B$509,B119)</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>825</v>
+        <v>751</v>
       </c>
       <c r="C120" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="E120" s="6">
-        <f>COUNTIF($B$2:$B$506,B120)</f>
+        <f>COUNTIF($B$2:$B$509,B120)</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="C121" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E121" s="6">
-        <f>COUNTIF($B$2:$B$506,B121)</f>
+        <f>COUNTIF($B$2:$B$509,B121)</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>836</v>
+        <v>753</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="C122" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>841</v>
+        <v>756</v>
       </c>
       <c r="E122" s="6">
-        <f>COUNTIF($B$2:$B$506,B122)</f>
+        <f>COUNTIF($B$2:$B$509,B122)</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>836</v>
+        <v>753</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="C123" s="6">
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>840</v>
+        <v>757</v>
       </c>
       <c r="E123" s="6">
-        <f>COUNTIF($B$2:$B$506,B123)</f>
+        <f>COUNTIF($B$2:$B$509,B123)</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>836</v>
+        <v>753</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="C124" s="6">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>842</v>
+        <v>758</v>
       </c>
       <c r="E124" s="6">
-        <f>COUNTIF($B$2:$B$506,B124)</f>
+        <f>COUNTIF($B$2:$B$509,B124)</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="C125" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D125" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="E125" s="6">
-        <f>COUNTIF($B$2:$B$506,B125)</f>
+        <f>COUNTIF($B$2:$B$509,B125)</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="C126" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="E126" s="6">
-        <f>COUNTIF($B$2:$B$506,B126)</f>
+        <f>COUNTIF($B$2:$B$509,B126)</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="C127" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="E127" s="6">
-        <f>COUNTIF($B$2:$B$506,B127)</f>
+        <f>COUNTIF($B$2:$B$509,B127)</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C128" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E128" s="6">
-        <f>COUNTIF($B$2:$B$506,B128)</f>
+        <f>COUNTIF($B$2:$B$509,B128)</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="C129" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="E129" s="6">
-        <f>COUNTIF($B$2:$B$506,B129)</f>
+        <f>COUNTIF($B$2:$B$509,B129)</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>845</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C130" s="6">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
         <v>851</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="C130" s="6">
-        <v>11</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>861</v>
-      </c>
       <c r="E130" s="6">
-        <f>COUNTIF($B$2:$B$506,B130)</f>
+        <f>COUNTIF($B$2:$B$509,B130)</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="C131" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E131" s="6">
-        <f>COUNTIF($B$2:$B$506,B131)</f>
+        <f>COUNTIF($B$2:$B$509,B131)</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>866</v>
+        <v>854</v>
+      </c>
+      <c r="C132" s="6">
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E132" s="6">
-        <f>COUNTIF($B$2:$B$506,B132)</f>
+        <f>COUNTIF($B$2:$B$509,B132)</f>
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="D133" t="s">
-        <v>870</v>
+        <v>857</v>
+      </c>
+      <c r="C133" s="6">
+        <v>11</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>855</v>
       </c>
       <c r="E133" s="6">
-        <f>COUNTIF($B$2:$B$506,B133)</f>
+        <f>COUNTIF($B$2:$B$509,B133)</f>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C134" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>913</v>
+        <v>859</v>
       </c>
       <c r="E134" s="6">
-        <f>COUNTIF($B$2:$B$506,B134)</f>
+        <f>COUNTIF($B$2:$B$509,B134)</f>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="C135" s="6">
-        <v>2</v>
+        <v>860</v>
       </c>
       <c r="D135" t="s">
-        <v>914</v>
+        <v>863</v>
       </c>
       <c r="E135" s="6">
-        <f>COUNTIF($B$2:$B$506,B135)</f>
+        <f>COUNTIF($B$2:$B$509,B135)</f>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="C136" s="6">
-        <v>3</v>
+        <v>861</v>
       </c>
       <c r="D136" t="s">
-        <v>915</v>
+        <v>864</v>
       </c>
       <c r="E136" s="6">
-        <f>COUNTIF($B$2:$B$506,B136)</f>
+        <f>COUNTIF($B$2:$B$509,B136)</f>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C137" s="6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>907</v>
       </c>
       <c r="E137" s="6">
-        <f>COUNTIF($B$2:$B$506,B137)</f>
+        <f>COUNTIF($B$2:$B$509,B137)</f>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C138" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>908</v>
       </c>
       <c r="E138" s="6">
-        <f>COUNTIF($B$2:$B$506,B138)</f>
+        <f>COUNTIF($B$2:$B$509,B138)</f>
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="C139" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>909</v>
       </c>
       <c r="E139" s="6">
-        <f>COUNTIF($B$2:$B$506,B139)</f>
+        <f>COUNTIF($B$2:$B$509,B139)</f>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C140" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E140" s="6">
-        <f>COUNTIF($B$2:$B$506,B140)</f>
+        <f>COUNTIF($B$2:$B$509,B140)</f>
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C141" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E141" s="6">
-        <f>COUNTIF($B$2:$B$506,B141)</f>
+        <f>COUNTIF($B$2:$B$509,B141)</f>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C142" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E142" s="6">
-        <f>COUNTIF($B$2:$B$506,B142)</f>
+        <f>COUNTIF($B$2:$B$509,B142)</f>
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>916</v>
+        <v>873</v>
       </c>
       <c r="C143" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E143" s="6">
-        <f>COUNTIF($B$2:$B$506,B143)</f>
+        <f>COUNTIF($B$2:$B$509,B143)</f>
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C144" s="6">
         <v>1</v>
       </c>
       <c r="E144" s="6">
-        <f>COUNTIF($B$2:$B$506,B144)</f>
+        <f>COUNTIF($B$2:$B$509,B144)</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C145" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" s="6">
-        <f>COUNTIF($B$2:$B$506,B145)</f>
+        <f>COUNTIF($B$2:$B$509,B145)</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="C146" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" s="6">
-        <f>COUNTIF($B$2:$B$506,B146)</f>
+        <f>COUNTIF($B$2:$B$509,B146)</f>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>885</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="C147" s="13"/>
+        <v>876</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
       <c r="E147" s="6">
-        <f>COUNTIF($B$2:$B$506,B147)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$509,B147)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>885</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="C148" s="13"/>
+        <v>876</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="C148" s="6">
+        <v>2</v>
+      </c>
       <c r="E148" s="6">
-        <f>COUNTIF($B$2:$B$506,B148)</f>
+        <f>COUNTIF($B$2:$B$509,B148)</f>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>885</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="C149" s="13"/>
+        <v>876</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C149" s="6">
+        <v>3</v>
+      </c>
       <c r="E149" s="6">
-        <f>COUNTIF($B$2:$B$506,B149)</f>
+        <f>COUNTIF($B$2:$B$509,B149)</f>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>889</v>
+        <v>732</v>
       </c>
       <c r="C150" s="13"/>
       <c r="E150" s="6">
-        <f>COUNTIF($B$2:$B$506,B150)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$509,B150)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>890</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="D151" t="s">
-        <v>893</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C151" s="13"/>
       <c r="E151" s="6">
-        <f>COUNTIF($B$2:$B$506,B151)</f>
+        <f>COUNTIF($B$2:$B$509,B151)</f>
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>890</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="D152" t="s">
-        <v>894</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C152" s="13"/>
       <c r="E152" s="6">
-        <f>COUNTIF($B$2:$B$506,B152)</f>
+        <f>COUNTIF($B$2:$B$509,B152)</f>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>890</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="D153" t="s">
-        <v>895</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="C153" s="13"/>
       <c r="E153" s="6">
-        <f>COUNTIF($B$2:$B$506,B153)</f>
+        <f>COUNTIF($B$2:$B$509,B153)</f>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D154" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="E154" s="6">
-        <f>COUNTIF($B$2:$B$506,B154)</f>
+        <f>COUNTIF($B$2:$B$509,B154)</f>
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D155" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E155" s="6">
-        <f>COUNTIF($B$2:$B$506,B155)</f>
+        <f>COUNTIF($B$2:$B$509,B155)</f>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D156" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="E156" s="6">
-        <f>COUNTIF($B$2:$B$506,B156)</f>
+        <f>COUNTIF($B$2:$B$509,B156)</f>
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="C157" s="6">
-        <v>1</v>
+        <v>896</v>
       </c>
       <c r="D157" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="E157" s="6">
-        <f>COUNTIF($B$2:$B$506,B157)</f>
+        <f>COUNTIF($B$2:$B$509,B157)</f>
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="C158" s="6">
-        <v>2</v>
+        <v>885</v>
       </c>
       <c r="D158" t="s">
-        <v>911</v>
+        <v>886</v>
       </c>
       <c r="E158" s="6">
-        <f>COUNTIF($B$2:$B$506,B158)</f>
+        <f>COUNTIF($B$2:$B$509,B158)</f>
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="C159" s="6">
-        <v>3</v>
+        <v>891</v>
       </c>
       <c r="D159" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="E159" s="6">
-        <f>COUNTIF($B$2:$B$506,B159)</f>
+        <f>COUNTIF($B$2:$B$509,B159)</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>751</v>
+        <v>898</v>
       </c>
       <c r="C160" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E160" s="6">
-        <f>COUNTIF($B$2:$B$506,B160)</f>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$509,B160)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>897</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="C161" s="6">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>905</v>
+      </c>
+      <c r="E161" s="6">
+        <f>COUNTIF($B$2:$B$509,B161)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>897</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="C162" s="6">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>906</v>
+      </c>
+      <c r="E162" s="6">
+        <f>COUNTIF($B$2:$B$509,B162)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>897</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C163" s="6">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
         <v>903</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>910</v>
-      </c>
-      <c r="C161" s="6">
+      <c r="E163" s="6">
+        <f>COUNTIF($B$2:$B$509,B163)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>897</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C164" s="6">
         <v>5</v>
       </c>
-      <c r="D161" t="s">
-        <v>906</v>
-      </c>
-      <c r="E161" s="6">
-        <f>COUNTIF($B$2:$B$506,B161)</f>
+      <c r="D164" t="s">
+        <v>900</v>
+      </c>
+      <c r="E164" s="6">
+        <f>COUNTIF($B$2:$B$509,B164)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E121" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
+  <autoFilter ref="A1:E164" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/impdata/Data/ApplicationData_v03.xlsx
+++ b/impdata/Data/ApplicationData_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD0D0E-1214-4A6A-A877-4EDF751884EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42A2DFB-C5E8-4F28-A363-7EE1890ED5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="26400" windowHeight="12030" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -9411,8 +9411,8 @@
   <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD69"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9452,7 +9452,7 @@
         <v>539</v>
       </c>
       <c r="E2" s="6">
-        <f>COUNTIF($B$2:$B$509,B2)</f>
+        <f t="shared" ref="E2:E33" si="0">COUNTIF($B$2:$B$509,B2)</f>
         <v>1</v>
       </c>
     </row>
@@ -9467,7 +9467,7 @@
         <v>541</v>
       </c>
       <c r="E3" s="6">
-        <f>COUNTIF($B$2:$B$509,B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9482,7 +9482,7 @@
         <v>543</v>
       </c>
       <c r="E4" s="6">
-        <f>COUNTIF($B$2:$B$509,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
         <v>545</v>
       </c>
       <c r="E5" s="6">
-        <f>COUNTIF($B$2:$B$509,B5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>547</v>
       </c>
       <c r="E6" s="6">
-        <f>COUNTIF($B$2:$B$509,B6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9527,7 +9527,7 @@
         <v>549</v>
       </c>
       <c r="E7" s="6">
-        <f>COUNTIF($B$2:$B$509,B7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9542,7 +9542,7 @@
         <v>545</v>
       </c>
       <c r="E8" s="6">
-        <f>COUNTIF($B$2:$B$509,B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
         <v>553</v>
       </c>
       <c r="E9" s="6">
-        <f>COUNTIF($B$2:$B$509,B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9572,7 +9572,7 @@
         <v>555</v>
       </c>
       <c r="E10" s="6">
-        <f>COUNTIF($B$2:$B$509,B10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9587,7 +9587,7 @@
         <v>557</v>
       </c>
       <c r="E11" s="6">
-        <f>COUNTIF($B$2:$B$509,B11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9602,7 +9602,7 @@
         <v>559</v>
       </c>
       <c r="E12" s="6">
-        <f>COUNTIF($B$2:$B$509,B12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
         <v>560</v>
       </c>
       <c r="E13" s="6">
-        <f>COUNTIF($B$2:$B$509,B13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
         <v>563</v>
       </c>
       <c r="E14" s="6">
-        <f>COUNTIF($B$2:$B$509,B14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
         <v>565</v>
       </c>
       <c r="E15" s="6">
-        <f>COUNTIF($B$2:$B$509,B15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
         <v>568</v>
       </c>
       <c r="E16" s="6">
-        <f>COUNTIF($B$2:$B$509,B16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
         <v>570</v>
       </c>
       <c r="E17" s="6">
-        <f>COUNTIF($B$2:$B$509,B17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9692,7 +9692,7 @@
         <v>573</v>
       </c>
       <c r="E18" s="6">
-        <f>COUNTIF($B$2:$B$509,B18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
         <v>575</v>
       </c>
       <c r="E19" s="6">
-        <f>COUNTIF($B$2:$B$509,B19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9725,7 +9725,7 @@
         <v>593</v>
       </c>
       <c r="E20" s="6">
-        <f>COUNTIF($B$2:$B$509,B20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
         <v>578</v>
       </c>
       <c r="E21" s="6">
-        <f>COUNTIF($B$2:$B$509,B21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
         <v>580</v>
       </c>
       <c r="E22" s="6">
-        <f>COUNTIF($B$2:$B$509,B22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
         <v>582</v>
       </c>
       <c r="E23" s="6">
-        <f>COUNTIF($B$2:$B$509,B23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9797,7 +9797,7 @@
         <v>837</v>
       </c>
       <c r="E24" s="6">
-        <f>COUNTIF($B$2:$B$509,B24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9815,7 +9815,7 @@
         <v>584</v>
       </c>
       <c r="E25" s="6">
-        <f>COUNTIF($B$2:$B$509,B25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
         <v>840</v>
       </c>
       <c r="E26" s="6">
-        <f>COUNTIF($B$2:$B$509,B26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
         <v>841</v>
       </c>
       <c r="E27" s="6">
-        <f>COUNTIF($B$2:$B$509,B27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
         <v>588</v>
       </c>
       <c r="E28" s="6">
-        <f>COUNTIF($B$2:$B$509,B28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
         <v>586</v>
       </c>
       <c r="E29" s="6">
-        <f>COUNTIF($B$2:$B$509,B29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
         <v>839</v>
       </c>
       <c r="E30" s="6">
-        <f>COUNTIF($B$2:$B$509,B30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9920,7 +9920,7 @@
         <v>591</v>
       </c>
       <c r="E31" s="6">
-        <f>COUNTIF($B$2:$B$509,B31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9935,7 +9935,7 @@
         <v>593</v>
       </c>
       <c r="E32" s="6">
-        <f>COUNTIF($B$2:$B$509,B32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9950,7 +9950,7 @@
         <v>595</v>
       </c>
       <c r="E33" s="6">
-        <f>COUNTIF($B$2:$B$509,B33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
         <v>597</v>
       </c>
       <c r="E34" s="6">
-        <f>COUNTIF($B$2:$B$509,B34)</f>
+        <f t="shared" ref="E34:E65" si="1">COUNTIF($B$2:$B$509,B34)</f>
         <v>1</v>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
         <v>599</v>
       </c>
       <c r="E35" s="6">
-        <f>COUNTIF($B$2:$B$509,B35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
         <v>602</v>
       </c>
       <c r="E36" s="6">
-        <f>COUNTIF($B$2:$B$509,B36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
         <v>604</v>
       </c>
       <c r="E37" s="6">
-        <f>COUNTIF($B$2:$B$509,B37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10025,7 +10025,7 @@
         <v>606</v>
       </c>
       <c r="E38" s="6">
-        <f>COUNTIF($B$2:$B$509,B38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
         <v>608</v>
       </c>
       <c r="E39" s="6">
-        <f>COUNTIF($B$2:$B$509,B39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
         <v>610</v>
       </c>
       <c r="E40" s="6">
-        <f>COUNTIF($B$2:$B$509,B40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10070,7 +10070,7 @@
         <v>612</v>
       </c>
       <c r="E41" s="6">
-        <f>COUNTIF($B$2:$B$509,B41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10085,7 +10085,7 @@
         <v>615</v>
       </c>
       <c r="E42" s="6">
-        <f>COUNTIF($B$2:$B$509,B42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10100,7 +10100,7 @@
         <v>617</v>
       </c>
       <c r="E43" s="6">
-        <f>COUNTIF($B$2:$B$509,B43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10115,7 +10115,7 @@
         <v>619</v>
       </c>
       <c r="E44" s="6">
-        <f>COUNTIF($B$2:$B$509,B44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
         <v>621</v>
       </c>
       <c r="E45" s="6">
-        <f>COUNTIF($B$2:$B$509,B45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
         <v>623</v>
       </c>
       <c r="E46" s="6">
-        <f>COUNTIF($B$2:$B$509,B46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
         <v>624</v>
       </c>
       <c r="E47" s="6">
-        <f>COUNTIF($B$2:$B$509,B47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
         <v>627</v>
       </c>
       <c r="E48" s="6">
-        <f>COUNTIF($B$2:$B$509,B48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
         <v>629</v>
       </c>
       <c r="E49" s="6">
-        <f>COUNTIF($B$2:$B$509,B49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
         <v>630</v>
       </c>
       <c r="E50" s="6">
-        <f>COUNTIF($B$2:$B$509,B50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
         <v>632</v>
       </c>
       <c r="E51" s="6">
-        <f>COUNTIF($B$2:$B$509,B51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
         <v>634</v>
       </c>
       <c r="E52" s="6">
-        <f>COUNTIF($B$2:$B$509,B52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10250,7 +10250,7 @@
         <v>637</v>
       </c>
       <c r="E53" s="6">
-        <f>COUNTIF($B$2:$B$509,B53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10265,7 +10265,7 @@
         <v>639</v>
       </c>
       <c r="E54" s="6">
-        <f>COUNTIF($B$2:$B$509,B54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10280,7 +10280,7 @@
         <v>641</v>
       </c>
       <c r="E55" s="6">
-        <f>COUNTIF($B$2:$B$509,B55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
         <v>643</v>
       </c>
       <c r="E56" s="6">
-        <f>COUNTIF($B$2:$B$509,B56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10310,7 +10310,7 @@
         <v>829</v>
       </c>
       <c r="E57" s="6">
-        <f>COUNTIF($B$2:$B$509,B57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
         <v>645</v>
       </c>
       <c r="E58" s="6">
-        <f>COUNTIF($B$2:$B$509,B58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
         <v>825</v>
       </c>
       <c r="E59" s="6">
-        <f>COUNTIF($B$2:$B$509,B59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
         <v>827</v>
       </c>
       <c r="E60" s="6">
-        <f>COUNTIF($B$2:$B$509,B60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10370,7 +10370,7 @@
         <v>648</v>
       </c>
       <c r="E61" s="6">
-        <f>COUNTIF($B$2:$B$509,B61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10385,7 +10385,7 @@
         <v>650</v>
       </c>
       <c r="E62" s="6">
-        <f>COUNTIF($B$2:$B$509,B62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
         <v>652</v>
       </c>
       <c r="E63" s="6">
-        <f>COUNTIF($B$2:$B$509,B63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10415,7 +10415,7 @@
         <v>654</v>
       </c>
       <c r="E64" s="6">
-        <f>COUNTIF($B$2:$B$509,B64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
         <v>656</v>
       </c>
       <c r="E65" s="6">
-        <f>COUNTIF($B$2:$B$509,B65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
         <v>824</v>
       </c>
       <c r="E66" s="6">
-        <f>COUNTIF($B$2:$B$509,B66)</f>
+        <f t="shared" ref="E66:E97" si="2">COUNTIF($B$2:$B$509,B66)</f>
         <v>1</v>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
         <v>761</v>
       </c>
       <c r="E67" s="6">
-        <f>COUNTIF($B$2:$B$509,B67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
         <v>662</v>
       </c>
       <c r="E68" s="6">
-        <f>COUNTIF($B$2:$B$509,B68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
         <v>664</v>
       </c>
       <c r="E69" s="6">
-        <f>COUNTIF($B$2:$B$509,B69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
         <v>666</v>
       </c>
       <c r="E70" s="6">
-        <f>COUNTIF($B$2:$B$509,B70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10520,7 +10520,7 @@
         <v>668</v>
       </c>
       <c r="E71" s="6">
-        <f>COUNTIF($B$2:$B$509,B71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
         <v>670</v>
       </c>
       <c r="E72" s="6">
-        <f>COUNTIF($B$2:$B$509,B72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10550,7 +10550,7 @@
         <v>673</v>
       </c>
       <c r="E73" s="6">
-        <f>COUNTIF($B$2:$B$509,B73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10565,7 +10565,7 @@
         <v>675</v>
       </c>
       <c r="E74" s="6">
-        <f>COUNTIF($B$2:$B$509,B74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10580,7 +10580,7 @@
         <v>677</v>
       </c>
       <c r="E75" s="6">
-        <f>COUNTIF($B$2:$B$509,B75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
         <v>679</v>
       </c>
       <c r="E76" s="6">
-        <f>COUNTIF($B$2:$B$509,B76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
         <v>920</v>
       </c>
       <c r="E77" s="6">
-        <f>COUNTIF($B$2:$B$509,B77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
         <v>922</v>
       </c>
       <c r="E78" s="6">
-        <f>COUNTIF($B$2:$B$509,B78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
         <v>921</v>
       </c>
       <c r="E79" s="6">
-        <f>COUNTIF($B$2:$B$509,B79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
         <v>918</v>
       </c>
       <c r="E80" s="6">
-        <f>COUNTIF($B$2:$B$509,B80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
         <v>919</v>
       </c>
       <c r="E81" s="6">
-        <f>COUNTIF($B$2:$B$509,B81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10685,7 +10685,7 @@
         <v>658</v>
       </c>
       <c r="E82" s="6">
-        <f>COUNTIF($B$2:$B$509,B82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
         <v>659</v>
       </c>
       <c r="E83" s="6">
-        <f>COUNTIF($B$2:$B$509,B83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
         <v>682</v>
       </c>
       <c r="E84" s="6">
-        <f>COUNTIF($B$2:$B$509,B84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10730,7 +10730,7 @@
         <v>684</v>
       </c>
       <c r="E85" s="6">
-        <f>COUNTIF($B$2:$B$509,B85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10745,7 +10745,7 @@
         <v>686</v>
       </c>
       <c r="E86" s="6">
-        <f>COUNTIF($B$2:$B$509,B86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
         <v>688</v>
       </c>
       <c r="E87" s="6">
-        <f>COUNTIF($B$2:$B$509,B87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
         <v>690</v>
       </c>
       <c r="E88" s="6">
-        <f>COUNTIF($B$2:$B$509,B88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
         <v>692</v>
       </c>
       <c r="E89" s="6">
-        <f>COUNTIF($B$2:$B$509,B89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10805,7 +10805,7 @@
         <v>693</v>
       </c>
       <c r="E90" s="6">
-        <f>COUNTIF($B$2:$B$509,B90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
         <v>694</v>
       </c>
       <c r="E91" s="6">
-        <f>COUNTIF($B$2:$B$509,B91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
         <v>695</v>
       </c>
       <c r="E92" s="6">
-        <f>COUNTIF($B$2:$B$509,B92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
         <v>696</v>
       </c>
       <c r="E93" s="6">
-        <f>COUNTIF($B$2:$B$509,B93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
         <v>697</v>
       </c>
       <c r="E94" s="6">
-        <f>COUNTIF($B$2:$B$509,B94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10880,7 +10880,7 @@
         <v>700</v>
       </c>
       <c r="E95" s="6">
-        <f>COUNTIF($B$2:$B$509,B95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
         <v>702</v>
       </c>
       <c r="E96" s="6">
-        <f>COUNTIF($B$2:$B$509,B96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10910,7 +10910,7 @@
         <v>704</v>
       </c>
       <c r="E97" s="6">
-        <f>COUNTIF($B$2:$B$509,B97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
         <v>706</v>
       </c>
       <c r="E98" s="6">
-        <f>COUNTIF($B$2:$B$509,B98)</f>
+        <f t="shared" ref="E98:E129" si="3">COUNTIF($B$2:$B$509,B98)</f>
         <v>1</v>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
         <v>708</v>
       </c>
       <c r="E99" s="6">
-        <f>COUNTIF($B$2:$B$509,B99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
         <v>710</v>
       </c>
       <c r="E100" s="6">
-        <f>COUNTIF($B$2:$B$509,B100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10970,7 +10970,7 @@
         <v>711</v>
       </c>
       <c r="E101" s="6">
-        <f>COUNTIF($B$2:$B$509,B101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
         <v>712</v>
       </c>
       <c r="E102" s="6">
-        <f>COUNTIF($B$2:$B$509,B102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11000,7 +11000,7 @@
         <v>715</v>
       </c>
       <c r="E103" s="6">
-        <f>COUNTIF($B$2:$B$509,B103)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
         <v>717</v>
       </c>
       <c r="E104" s="6">
-        <f>COUNTIF($B$2:$B$509,B104)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11030,7 +11030,7 @@
         <v>719</v>
       </c>
       <c r="E105" s="6">
-        <f>COUNTIF($B$2:$B$509,B105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
         <v>721</v>
       </c>
       <c r="E106" s="6">
-        <f>COUNTIF($B$2:$B$509,B106)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11060,7 +11060,7 @@
         <v>724</v>
       </c>
       <c r="E107" s="6">
-        <f>COUNTIF($B$2:$B$509,B107)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
         <v>726</v>
       </c>
       <c r="E108" s="6">
-        <f>COUNTIF($B$2:$B$509,B108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11090,7 +11090,7 @@
         <v>728</v>
       </c>
       <c r="E109" s="6">
-        <f>COUNTIF($B$2:$B$509,B109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11105,7 +11105,7 @@
         <v>730</v>
       </c>
       <c r="E110" s="6">
-        <f>COUNTIF($B$2:$B$509,B110)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
         <v>733</v>
       </c>
       <c r="E111" s="6">
-        <f>COUNTIF($B$2:$B$509,B111)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
         <v>735</v>
       </c>
       <c r="E112" s="6">
-        <f>COUNTIF($B$2:$B$509,B112)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
         <v>737</v>
       </c>
       <c r="E113" s="6">
-        <f>COUNTIF($B$2:$B$509,B113)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11177,7 +11177,7 @@
         <v>739</v>
       </c>
       <c r="E114" s="6">
-        <f>COUNTIF($B$2:$B$509,B114)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11195,7 +11195,7 @@
         <v>742</v>
       </c>
       <c r="E115" s="6">
-        <f>COUNTIF($B$2:$B$509,B115)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
         <v>744</v>
       </c>
       <c r="E116" s="6">
-        <f>COUNTIF($B$2:$B$509,B116)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
         <v>746</v>
       </c>
       <c r="E117" s="6">
-        <f>COUNTIF($B$2:$B$509,B117)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
         <v>748</v>
       </c>
       <c r="E118" s="6">
-        <f>COUNTIF($B$2:$B$509,B118)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11267,7 +11267,7 @@
         <v>750</v>
       </c>
       <c r="E119" s="6">
-        <f>COUNTIF($B$2:$B$509,B119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
         <v>752</v>
       </c>
       <c r="E120" s="6">
-        <f>COUNTIF($B$2:$B$509,B120)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11303,7 +11303,7 @@
         <v>755</v>
       </c>
       <c r="E121" s="6">
-        <f>COUNTIF($B$2:$B$509,B121)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11321,7 +11321,7 @@
         <v>756</v>
       </c>
       <c r="E122" s="6">
-        <f>COUNTIF($B$2:$B$509,B122)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
         <v>757</v>
       </c>
       <c r="E123" s="6">
-        <f>COUNTIF($B$2:$B$509,B123)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
         <v>758</v>
       </c>
       <c r="E124" s="6">
-        <f>COUNTIF($B$2:$B$509,B124)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
         <v>835</v>
       </c>
       <c r="E125" s="6">
-        <f>COUNTIF($B$2:$B$509,B125)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
         <v>834</v>
       </c>
       <c r="E126" s="6">
-        <f>COUNTIF($B$2:$B$509,B126)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
         <v>836</v>
       </c>
       <c r="E127" s="6">
-        <f>COUNTIF($B$2:$B$509,B127)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
         <v>850</v>
       </c>
       <c r="E128" s="6">
-        <f>COUNTIF($B$2:$B$509,B128)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
         <v>853</v>
       </c>
       <c r="E129" s="6">
-        <f>COUNTIF($B$2:$B$509,B129)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -11465,7 +11465,7 @@
         <v>851</v>
       </c>
       <c r="E130" s="6">
-        <f>COUNTIF($B$2:$B$509,B130)</f>
+        <f t="shared" ref="E130:E164" si="4">COUNTIF($B$2:$B$509,B130)</f>
         <v>1</v>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
         <v>852</v>
       </c>
       <c r="E131" s="6">
-        <f>COUNTIF($B$2:$B$509,B131)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
         <v>856</v>
       </c>
       <c r="E132" s="6">
-        <f>COUNTIF($B$2:$B$509,B132)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11519,7 +11519,7 @@
         <v>855</v>
       </c>
       <c r="E133" s="6">
-        <f>COUNTIF($B$2:$B$509,B133)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
         <v>859</v>
       </c>
       <c r="E134" s="6">
-        <f>COUNTIF($B$2:$B$509,B134)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11552,7 +11552,7 @@
         <v>863</v>
       </c>
       <c r="E135" s="6">
-        <f>COUNTIF($B$2:$B$509,B135)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11567,7 +11567,7 @@
         <v>864</v>
       </c>
       <c r="E136" s="6">
-        <f>COUNTIF($B$2:$B$509,B136)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11585,7 +11585,7 @@
         <v>907</v>
       </c>
       <c r="E137" s="6">
-        <f>COUNTIF($B$2:$B$509,B137)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
         <v>908</v>
       </c>
       <c r="E138" s="6">
-        <f>COUNTIF($B$2:$B$509,B138)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
         <v>909</v>
       </c>
       <c r="E139" s="6">
-        <f>COUNTIF($B$2:$B$509,B139)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="6">
-        <f>COUNTIF($B$2:$B$509,B140)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11651,7 +11651,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="6">
-        <f>COUNTIF($B$2:$B$509,B141)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11666,7 +11666,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="6">
-        <f>COUNTIF($B$2:$B$509,B142)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="6">
-        <f>COUNTIF($B$2:$B$509,B143)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11696,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="6">
-        <f>COUNTIF($B$2:$B$509,B144)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="6">
-        <f>COUNTIF($B$2:$B$509,B145)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
         <v>2</v>
       </c>
       <c r="E146" s="6">
-        <f>COUNTIF($B$2:$B$509,B146)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="6">
-        <f>COUNTIF($B$2:$B$509,B147)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="E148" s="6">
-        <f>COUNTIF($B$2:$B$509,B148)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11771,7 +11771,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="6">
-        <f>COUNTIF($B$2:$B$509,B149)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="C150" s="13"/>
       <c r="E150" s="6">
-        <f>COUNTIF($B$2:$B$509,B150)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="C151" s="13"/>
       <c r="E151" s="6">
-        <f>COUNTIF($B$2:$B$509,B151)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="C152" s="13"/>
       <c r="E152" s="6">
-        <f>COUNTIF($B$2:$B$509,B152)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="C153" s="13"/>
       <c r="E153" s="6">
-        <f>COUNTIF($B$2:$B$509,B153)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
         <v>887</v>
       </c>
       <c r="E154" s="6">
-        <f>COUNTIF($B$2:$B$509,B154)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
         <v>888</v>
       </c>
       <c r="E155" s="6">
-        <f>COUNTIF($B$2:$B$509,B155)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
         <v>889</v>
       </c>
       <c r="E156" s="6">
-        <f>COUNTIF($B$2:$B$509,B156)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11883,7 +11883,7 @@
         <v>890</v>
       </c>
       <c r="E157" s="6">
-        <f>COUNTIF($B$2:$B$509,B157)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
         <v>886</v>
       </c>
       <c r="E158" s="6">
-        <f>COUNTIF($B$2:$B$509,B158)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
         <v>892</v>
       </c>
       <c r="E159" s="6">
-        <f>COUNTIF($B$2:$B$509,B159)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
         <v>901</v>
       </c>
       <c r="E160" s="6">
-        <f>COUNTIF($B$2:$B$509,B160)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
         <v>905</v>
       </c>
       <c r="E161" s="6">
-        <f>COUNTIF($B$2:$B$509,B161)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
         <v>906</v>
       </c>
       <c r="E162" s="6">
-        <f>COUNTIF($B$2:$B$509,B162)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11985,7 +11985,7 @@
         <v>903</v>
       </c>
       <c r="E163" s="6">
-        <f>COUNTIF($B$2:$B$509,B163)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -12003,7 +12003,7 @@
         <v>900</v>
       </c>
       <c r="E164" s="6">
-        <f>COUNTIF($B$2:$B$509,B164)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>

--- a/impdata/Data/ApplicationData_v03.xlsx
+++ b/impdata/Data/ApplicationData_v03.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42A2DFB-C5E8-4F28-A363-7EE1890ED5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD8F50-3C57-4753-AE5C-8AF054848FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{3F0EC915-F8C4-4304-9540-324B22B2AC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Dictionary" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$E$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$E$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">User!$A$1:$R$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="930">
   <si>
     <t>J.Zuegg</t>
   </si>
@@ -2816,6 +2816,21 @@
   </si>
   <si>
     <t>Recommanded</t>
+  </si>
+  <si>
+    <t>DiskDiffusion</t>
+  </si>
+  <si>
+    <t>ID_Type</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t>Whole Genome Sequencing</t>
   </si>
 </sst>
 </file>
@@ -9408,11 +9423,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9452,7 +9467,7 @@
         <v>539</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:E33" si="0">COUNTIF($B$2:$B$509,B2)</f>
+        <f>COUNTIF($B$2:$B$509,B2)</f>
         <v>1</v>
       </c>
     </row>
@@ -9467,7 +9482,7 @@
         <v>541</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B3)</f>
         <v>1</v>
       </c>
     </row>
@@ -9482,7 +9497,7 @@
         <v>543</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B4)</f>
         <v>1</v>
       </c>
     </row>
@@ -9497,7 +9512,7 @@
         <v>545</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B5)</f>
         <v>1</v>
       </c>
     </row>
@@ -9512,7 +9527,7 @@
         <v>547</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B6)</f>
         <v>1</v>
       </c>
     </row>
@@ -9527,7 +9542,7 @@
         <v>549</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B7)</f>
         <v>1</v>
       </c>
     </row>
@@ -9542,7 +9557,7 @@
         <v>545</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B8)</f>
         <v>1</v>
       </c>
     </row>
@@ -9557,7 +9572,7 @@
         <v>553</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B9)</f>
         <v>1</v>
       </c>
     </row>
@@ -9572,7 +9587,7 @@
         <v>555</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B10)</f>
         <v>1</v>
       </c>
     </row>
@@ -9587,7 +9602,7 @@
         <v>557</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B11)</f>
         <v>1</v>
       </c>
     </row>
@@ -9602,7 +9617,7 @@
         <v>559</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B12)</f>
         <v>1</v>
       </c>
     </row>
@@ -9617,7 +9632,7 @@
         <v>560</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B13)</f>
         <v>1</v>
       </c>
     </row>
@@ -9632,7 +9647,7 @@
         <v>563</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B14)</f>
         <v>1</v>
       </c>
     </row>
@@ -9647,7 +9662,7 @@
         <v>565</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B15)</f>
         <v>1</v>
       </c>
     </row>
@@ -9662,7 +9677,7 @@
         <v>568</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B16)</f>
         <v>1</v>
       </c>
     </row>
@@ -9677,7 +9692,7 @@
         <v>570</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B17)</f>
         <v>1</v>
       </c>
     </row>
@@ -9692,7 +9707,7 @@
         <v>573</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B18)</f>
         <v>1</v>
       </c>
     </row>
@@ -9707,7 +9722,7 @@
         <v>575</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B19)</f>
         <v>1</v>
       </c>
     </row>
@@ -9725,7 +9740,7 @@
         <v>593</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B20)</f>
         <v>1</v>
       </c>
     </row>
@@ -9743,7 +9758,7 @@
         <v>578</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B21)</f>
         <v>1</v>
       </c>
     </row>
@@ -9761,7 +9776,7 @@
         <v>580</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B22)</f>
         <v>1</v>
       </c>
     </row>
@@ -9779,7 +9794,7 @@
         <v>582</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B23)</f>
         <v>1</v>
       </c>
     </row>
@@ -9797,7 +9812,7 @@
         <v>837</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B24)</f>
         <v>1</v>
       </c>
     </row>
@@ -9815,7 +9830,7 @@
         <v>584</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B25)</f>
         <v>1</v>
       </c>
     </row>
@@ -9833,7 +9848,7 @@
         <v>840</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B26)</f>
         <v>1</v>
       </c>
     </row>
@@ -9851,7 +9866,7 @@
         <v>841</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B27)</f>
         <v>1</v>
       </c>
     </row>
@@ -9869,7 +9884,7 @@
         <v>588</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B28)</f>
         <v>1</v>
       </c>
     </row>
@@ -9887,7 +9902,7 @@
         <v>586</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B29)</f>
         <v>1</v>
       </c>
     </row>
@@ -9905,7 +9920,7 @@
         <v>839</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B30)</f>
         <v>1</v>
       </c>
     </row>
@@ -9920,7 +9935,7 @@
         <v>591</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B31)</f>
         <v>1</v>
       </c>
     </row>
@@ -9935,7 +9950,7 @@
         <v>593</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B32)</f>
         <v>1</v>
       </c>
     </row>
@@ -9950,7 +9965,7 @@
         <v>595</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF($B$2:$B$509,B33)</f>
         <v>1</v>
       </c>
     </row>
@@ -9965,7 +9980,7 @@
         <v>597</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:E65" si="1">COUNTIF($B$2:$B$509,B34)</f>
+        <f>COUNTIF($B$2:$B$509,B34)</f>
         <v>1</v>
       </c>
     </row>
@@ -9980,7 +9995,7 @@
         <v>599</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B35)</f>
         <v>1</v>
       </c>
     </row>
@@ -9995,7 +10010,7 @@
         <v>602</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B36)</f>
         <v>1</v>
       </c>
     </row>
@@ -10010,7 +10025,7 @@
         <v>604</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B37)</f>
         <v>1</v>
       </c>
     </row>
@@ -10025,7 +10040,7 @@
         <v>606</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B38)</f>
         <v>1</v>
       </c>
     </row>
@@ -10040,7 +10055,7 @@
         <v>608</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B39)</f>
         <v>1</v>
       </c>
     </row>
@@ -10055,7 +10070,7 @@
         <v>610</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B40)</f>
         <v>1</v>
       </c>
     </row>
@@ -10070,7 +10085,7 @@
         <v>612</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B41)</f>
         <v>1</v>
       </c>
     </row>
@@ -10085,7 +10100,7 @@
         <v>615</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B42)</f>
         <v>1</v>
       </c>
     </row>
@@ -10100,7 +10115,7 @@
         <v>617</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B43)</f>
         <v>1</v>
       </c>
     </row>
@@ -10115,7 +10130,7 @@
         <v>619</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B44)</f>
         <v>1</v>
       </c>
     </row>
@@ -10130,7 +10145,7 @@
         <v>621</v>
       </c>
       <c r="E45" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B45)</f>
         <v>1</v>
       </c>
     </row>
@@ -10145,7 +10160,7 @@
         <v>623</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B46)</f>
         <v>1</v>
       </c>
     </row>
@@ -10160,7 +10175,7 @@
         <v>624</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B47)</f>
         <v>1</v>
       </c>
     </row>
@@ -10175,7 +10190,7 @@
         <v>627</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B48)</f>
         <v>1</v>
       </c>
     </row>
@@ -10190,7 +10205,7 @@
         <v>629</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B49)</f>
         <v>1</v>
       </c>
     </row>
@@ -10205,7 +10220,7 @@
         <v>630</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B50)</f>
         <v>1</v>
       </c>
     </row>
@@ -10220,7 +10235,7 @@
         <v>632</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B51)</f>
         <v>1</v>
       </c>
     </row>
@@ -10235,7 +10250,7 @@
         <v>634</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B52)</f>
         <v>1</v>
       </c>
     </row>
@@ -10250,7 +10265,7 @@
         <v>637</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B53)</f>
         <v>1</v>
       </c>
     </row>
@@ -10265,7 +10280,7 @@
         <v>639</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B54)</f>
         <v>1</v>
       </c>
     </row>
@@ -10280,7 +10295,7 @@
         <v>641</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B55)</f>
         <v>1</v>
       </c>
     </row>
@@ -10295,7 +10310,7 @@
         <v>643</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B56)</f>
         <v>1</v>
       </c>
     </row>
@@ -10310,7 +10325,7 @@
         <v>829</v>
       </c>
       <c r="E57" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B57)</f>
         <v>1</v>
       </c>
     </row>
@@ -10325,7 +10340,7 @@
         <v>645</v>
       </c>
       <c r="E58" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B58)</f>
         <v>1</v>
       </c>
     </row>
@@ -10340,7 +10355,7 @@
         <v>825</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B59)</f>
         <v>1</v>
       </c>
     </row>
@@ -10355,7 +10370,7 @@
         <v>827</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B60)</f>
         <v>1</v>
       </c>
     </row>
@@ -10370,7 +10385,7 @@
         <v>648</v>
       </c>
       <c r="E61" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B61)</f>
         <v>1</v>
       </c>
     </row>
@@ -10385,7 +10400,7 @@
         <v>650</v>
       </c>
       <c r="E62" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B62)</f>
         <v>1</v>
       </c>
     </row>
@@ -10400,7 +10415,7 @@
         <v>652</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B63)</f>
         <v>1</v>
       </c>
     </row>
@@ -10415,7 +10430,7 @@
         <v>654</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B64)</f>
         <v>1</v>
       </c>
     </row>
@@ -10430,7 +10445,7 @@
         <v>656</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($B$2:$B$509,B65)</f>
         <v>1</v>
       </c>
     </row>
@@ -10445,7 +10460,7 @@
         <v>824</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" ref="E66:E97" si="2">COUNTIF($B$2:$B$509,B66)</f>
+        <f>COUNTIF($B$2:$B$509,B66)</f>
         <v>1</v>
       </c>
     </row>
@@ -10460,7 +10475,7 @@
         <v>761</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B67)</f>
         <v>1</v>
       </c>
     </row>
@@ -10475,7 +10490,7 @@
         <v>662</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B68)</f>
         <v>1</v>
       </c>
     </row>
@@ -10490,7 +10505,7 @@
         <v>664</v>
       </c>
       <c r="E69" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B69)</f>
         <v>1</v>
       </c>
     </row>
@@ -10505,7 +10520,7 @@
         <v>666</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B70)</f>
         <v>1</v>
       </c>
     </row>
@@ -10520,7 +10535,7 @@
         <v>668</v>
       </c>
       <c r="E71" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B71)</f>
         <v>1</v>
       </c>
     </row>
@@ -10535,7 +10550,7 @@
         <v>670</v>
       </c>
       <c r="E72" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B72)</f>
         <v>1</v>
       </c>
     </row>
@@ -10550,7 +10565,7 @@
         <v>673</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B73)</f>
         <v>1</v>
       </c>
     </row>
@@ -10565,7 +10580,7 @@
         <v>675</v>
       </c>
       <c r="E74" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B74)</f>
         <v>1</v>
       </c>
     </row>
@@ -10580,7 +10595,7 @@
         <v>677</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B75)</f>
         <v>1</v>
       </c>
     </row>
@@ -10595,7 +10610,7 @@
         <v>679</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B76)</f>
         <v>1</v>
       </c>
     </row>
@@ -10610,7 +10625,7 @@
         <v>920</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B77)</f>
         <v>1</v>
       </c>
     </row>
@@ -10625,7 +10640,7 @@
         <v>922</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B78)</f>
         <v>1</v>
       </c>
     </row>
@@ -10640,7 +10655,7 @@
         <v>921</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B79)</f>
         <v>1</v>
       </c>
     </row>
@@ -10655,7 +10670,7 @@
         <v>918</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B80)</f>
         <v>1</v>
       </c>
     </row>
@@ -10670,7 +10685,7 @@
         <v>919</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B81)</f>
         <v>1</v>
       </c>
     </row>
@@ -10685,7 +10700,7 @@
         <v>658</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B82)</f>
         <v>1</v>
       </c>
     </row>
@@ -10700,7 +10715,7 @@
         <v>659</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B83)</f>
         <v>1</v>
       </c>
     </row>
@@ -10715,7 +10730,7 @@
         <v>682</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B84)</f>
         <v>1</v>
       </c>
     </row>
@@ -10730,7 +10745,7 @@
         <v>684</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B85)</f>
         <v>1</v>
       </c>
     </row>
@@ -10745,7 +10760,7 @@
         <v>686</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B86)</f>
         <v>1</v>
       </c>
     </row>
@@ -10760,7 +10775,7 @@
         <v>688</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B87)</f>
         <v>1</v>
       </c>
     </row>
@@ -10775,7 +10790,7 @@
         <v>690</v>
       </c>
       <c r="E88" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B88)</f>
         <v>1</v>
       </c>
     </row>
@@ -10790,7 +10805,7 @@
         <v>692</v>
       </c>
       <c r="E89" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B89)</f>
         <v>1</v>
       </c>
     </row>
@@ -10805,7 +10820,7 @@
         <v>693</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B90)</f>
         <v>1</v>
       </c>
     </row>
@@ -10820,7 +10835,7 @@
         <v>694</v>
       </c>
       <c r="E91" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B91)</f>
         <v>1</v>
       </c>
     </row>
@@ -10835,7 +10850,7 @@
         <v>695</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B92)</f>
         <v>1</v>
       </c>
     </row>
@@ -10850,7 +10865,7 @@
         <v>696</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B93)</f>
         <v>1</v>
       </c>
     </row>
@@ -10865,7 +10880,7 @@
         <v>697</v>
       </c>
       <c r="E94" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B94)</f>
         <v>1</v>
       </c>
     </row>
@@ -10880,7 +10895,7 @@
         <v>700</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B95)</f>
         <v>1</v>
       </c>
     </row>
@@ -10895,7 +10910,7 @@
         <v>702</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B96)</f>
         <v>1</v>
       </c>
     </row>
@@ -10910,7 +10925,7 @@
         <v>704</v>
       </c>
       <c r="E97" s="6">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$2:$B$509,B97)</f>
         <v>1</v>
       </c>
     </row>
@@ -10925,7 +10940,7 @@
         <v>706</v>
       </c>
       <c r="E98" s="6">
-        <f t="shared" ref="E98:E129" si="3">COUNTIF($B$2:$B$509,B98)</f>
+        <f>COUNTIF($B$2:$B$509,B98)</f>
         <v>1</v>
       </c>
     </row>
@@ -10940,7 +10955,7 @@
         <v>708</v>
       </c>
       <c r="E99" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B99)</f>
         <v>1</v>
       </c>
     </row>
@@ -10955,7 +10970,7 @@
         <v>710</v>
       </c>
       <c r="E100" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B100)</f>
         <v>1</v>
       </c>
     </row>
@@ -10970,7 +10985,7 @@
         <v>711</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B101)</f>
         <v>1</v>
       </c>
     </row>
@@ -10985,7 +11000,7 @@
         <v>712</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B102)</f>
         <v>1</v>
       </c>
     </row>
@@ -11000,7 +11015,7 @@
         <v>715</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B103)</f>
         <v>1</v>
       </c>
     </row>
@@ -11015,7 +11030,7 @@
         <v>717</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B104)</f>
         <v>1</v>
       </c>
     </row>
@@ -11030,7 +11045,7 @@
         <v>719</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B105)</f>
         <v>1</v>
       </c>
     </row>
@@ -11045,7 +11060,7 @@
         <v>721</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B106)</f>
         <v>1</v>
       </c>
     </row>
@@ -11060,7 +11075,7 @@
         <v>724</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B107)</f>
         <v>1</v>
       </c>
     </row>
@@ -11075,7 +11090,7 @@
         <v>726</v>
       </c>
       <c r="E108" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B108)</f>
         <v>1</v>
       </c>
     </row>
@@ -11090,7 +11105,7 @@
         <v>728</v>
       </c>
       <c r="E109" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B109)</f>
         <v>1</v>
       </c>
     </row>
@@ -11105,7 +11120,7 @@
         <v>730</v>
       </c>
       <c r="E110" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B110)</f>
         <v>1</v>
       </c>
     </row>
@@ -11123,7 +11138,7 @@
         <v>733</v>
       </c>
       <c r="E111" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B111)</f>
         <v>2</v>
       </c>
     </row>
@@ -11141,7 +11156,7 @@
         <v>735</v>
       </c>
       <c r="E112" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B112)</f>
         <v>1</v>
       </c>
     </row>
@@ -11159,7 +11174,7 @@
         <v>737</v>
       </c>
       <c r="E113" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B113)</f>
         <v>1</v>
       </c>
     </row>
@@ -11177,7 +11192,7 @@
         <v>739</v>
       </c>
       <c r="E114" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B114)</f>
         <v>1</v>
       </c>
     </row>
@@ -11195,7 +11210,7 @@
         <v>742</v>
       </c>
       <c r="E115" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B115)</f>
         <v>1</v>
       </c>
     </row>
@@ -11213,7 +11228,7 @@
         <v>744</v>
       </c>
       <c r="E116" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B116)</f>
         <v>1</v>
       </c>
     </row>
@@ -11231,7 +11246,7 @@
         <v>746</v>
       </c>
       <c r="E117" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B117)</f>
         <v>2</v>
       </c>
     </row>
@@ -11249,7 +11264,7 @@
         <v>748</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B118)</f>
         <v>1</v>
       </c>
     </row>
@@ -11267,7 +11282,7 @@
         <v>750</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B119)</f>
         <v>1</v>
       </c>
     </row>
@@ -11285,7 +11300,7 @@
         <v>752</v>
       </c>
       <c r="E120" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B120)</f>
         <v>1</v>
       </c>
     </row>
@@ -11303,7 +11318,7 @@
         <v>755</v>
       </c>
       <c r="E121" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B121)</f>
         <v>1</v>
       </c>
     </row>
@@ -11321,7 +11336,7 @@
         <v>756</v>
       </c>
       <c r="E122" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B122)</f>
         <v>1</v>
       </c>
     </row>
@@ -11339,7 +11354,7 @@
         <v>757</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B123)</f>
         <v>1</v>
       </c>
     </row>
@@ -11357,7 +11372,7 @@
         <v>758</v>
       </c>
       <c r="E124" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B124)</f>
         <v>1</v>
       </c>
     </row>
@@ -11375,7 +11390,7 @@
         <v>835</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B125)</f>
         <v>1</v>
       </c>
     </row>
@@ -11393,7 +11408,7 @@
         <v>834</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B126)</f>
         <v>1</v>
       </c>
     </row>
@@ -11411,7 +11426,7 @@
         <v>836</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B127)</f>
         <v>1</v>
       </c>
     </row>
@@ -11429,7 +11444,7 @@
         <v>850</v>
       </c>
       <c r="E128" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B128)</f>
         <v>1</v>
       </c>
     </row>
@@ -11447,7 +11462,7 @@
         <v>853</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($B$2:$B$509,B129)</f>
         <v>1</v>
       </c>
     </row>
@@ -11465,7 +11480,7 @@
         <v>851</v>
       </c>
       <c r="E130" s="6">
-        <f t="shared" ref="E130:E164" si="4">COUNTIF($B$2:$B$509,B130)</f>
+        <f>COUNTIF($B$2:$B$509,B130)</f>
         <v>1</v>
       </c>
     </row>
@@ -11483,7 +11498,7 @@
         <v>852</v>
       </c>
       <c r="E131" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B131)</f>
         <v>1</v>
       </c>
     </row>
@@ -11501,7 +11516,7 @@
         <v>856</v>
       </c>
       <c r="E132" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B132)</f>
         <v>1</v>
       </c>
     </row>
@@ -11519,7 +11534,7 @@
         <v>855</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B133)</f>
         <v>1</v>
       </c>
     </row>
@@ -11537,7 +11552,7 @@
         <v>859</v>
       </c>
       <c r="E134" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B134)</f>
         <v>1</v>
       </c>
     </row>
@@ -11552,7 +11567,7 @@
         <v>863</v>
       </c>
       <c r="E135" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B135)</f>
         <v>1</v>
       </c>
     </row>
@@ -11567,7 +11582,7 @@
         <v>864</v>
       </c>
       <c r="E136" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B136)</f>
         <v>1</v>
       </c>
     </row>
@@ -11585,7 +11600,7 @@
         <v>907</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B137)</f>
         <v>1</v>
       </c>
     </row>
@@ -11603,7 +11618,7 @@
         <v>908</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B138)</f>
         <v>1</v>
       </c>
     </row>
@@ -11621,7 +11636,7 @@
         <v>909</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B139)</f>
         <v>1</v>
       </c>
     </row>
@@ -11636,7 +11651,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B140)</f>
         <v>1</v>
       </c>
     </row>
@@ -11651,22 +11666,22 @@
         <v>4</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B141)</f>
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>872</v>
+        <v>925</v>
       </c>
       <c r="C142" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B142)</f>
         <v>1</v>
       </c>
     </row>
@@ -11675,13 +11690,13 @@
         <v>871</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C143" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B143)</f>
         <v>1</v>
       </c>
     </row>
@@ -11690,13 +11705,13 @@
         <v>871</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C144" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B144)</f>
         <v>1</v>
       </c>
     </row>
@@ -11705,13 +11720,13 @@
         <v>871</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C145" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B145)</f>
         <v>1</v>
       </c>
     </row>
@@ -11720,28 +11735,28 @@
         <v>871</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="C146" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B146)</f>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>877</v>
+        <v>910</v>
       </c>
       <c r="C147" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B147)</f>
         <v>1</v>
       </c>
     </row>
@@ -11750,13 +11765,13 @@
         <v>876</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C148" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B148)</f>
         <v>1</v>
       </c>
     </row>
@@ -11765,27 +11780,29 @@
         <v>876</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C149" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B149)</f>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>879</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="C150" s="13"/>
+        <v>876</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C150" s="6">
+        <v>3</v>
+      </c>
       <c r="E150" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$509,B150)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -11793,12 +11810,12 @@
         <v>879</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>881</v>
+        <v>732</v>
       </c>
       <c r="C151" s="13"/>
       <c r="E151" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$509,B151)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -11806,11 +11823,11 @@
         <v>879</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C152" s="13"/>
       <c r="E152" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B152)</f>
         <v>1</v>
       </c>
     </row>
@@ -11819,26 +11836,24 @@
         <v>879</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C153" s="13"/>
       <c r="E153" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B153)</f>
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>884</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="D154" t="s">
-        <v>887</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="C154" s="13"/>
       <c r="E154" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B154)</f>
         <v>1</v>
       </c>
     </row>
@@ -11847,13 +11862,13 @@
         <v>884</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D155" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E155" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B155)</f>
         <v>1</v>
       </c>
     </row>
@@ -11862,13 +11877,13 @@
         <v>884</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D156" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E156" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B156)</f>
         <v>1</v>
       </c>
     </row>
@@ -11877,13 +11892,13 @@
         <v>884</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D157" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E157" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B157)</f>
         <v>1</v>
       </c>
     </row>
@@ -11892,13 +11907,13 @@
         <v>884</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="D158" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E158" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B158)</f>
         <v>1</v>
       </c>
     </row>
@@ -11907,31 +11922,28 @@
         <v>884</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D159" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E159" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B159)</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="C160" s="6">
-        <v>1</v>
+        <v>891</v>
       </c>
       <c r="D160" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="E160" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B160)</f>
         <v>1</v>
       </c>
     </row>
@@ -11940,16 +11952,16 @@
         <v>897</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C161" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E161" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B161)</f>
         <v>1</v>
       </c>
     </row>
@@ -11958,16 +11970,16 @@
         <v>897</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C162" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E162" s="6">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($B$2:$B$509,B162)</f>
         <v>1</v>
       </c>
     </row>
@@ -11976,17 +11988,17 @@
         <v>897</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>745</v>
+        <v>902</v>
       </c>
       <c r="C163" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E163" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>COUNTIF($B$2:$B$509,B163)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -11994,21 +12006,62 @@
         <v>897</v>
       </c>
       <c r="B164" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C164" s="6">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>903</v>
+      </c>
+      <c r="E164" s="6">
+        <f>COUNTIF($B$2:$B$509,B164)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>897</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C165" s="6">
         <v>5</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>900</v>
       </c>
-      <c r="E164" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="E165" s="6">
+        <f>COUNTIF($B$2:$B$509,B165)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>926</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="D166" t="s">
+        <v>929</v>
+      </c>
+      <c r="E166" s="6">
+        <f>COUNTIF($B$2:$B$509,B166)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>926</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E164" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
+  <autoFilter ref="A1:E165" xr:uid="{5D54449A-3755-4811-8641-93E79CC52E15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
